--- a/data-raw/fieldplayers_overall_season_2017.xlsx
+++ b/data-raw/fieldplayers_overall_season_2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="3560" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>Yael Averbuch</t>
   </si>
   <si>
-    <t>EstefanÃ­a Banini</t>
-  </si>
-  <si>
     <t>ar ARG</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Bruna</t>
   </si>
   <si>
-    <t>DagnÃ½ BrynjarsdÃ³ttir</t>
-  </si>
-  <si>
     <t>is ISL</t>
   </si>
   <si>
@@ -512,9 +506,6 @@
     <t>Ali Krieger</t>
   </si>
   <si>
-    <t>Stephanie LabbÃ©</t>
-  </si>
-  <si>
     <t>Lo'eau LaBonta</t>
   </si>
   <si>
@@ -587,9 +578,6 @@
     <t>Sydney Miramontez</t>
   </si>
   <si>
-    <t>MÃ´nica</t>
-  </si>
-  <si>
     <t>Alex Morgan</t>
   </si>
   <si>
@@ -605,9 +593,6 @@
     <t>Alyssa Naeher</t>
   </si>
   <si>
-    <t>YÅ«ki Nagasato</t>
-  </si>
-  <si>
     <t>Christine Nairn</t>
   </si>
   <si>
@@ -701,9 +686,6 @@
     <t>Amy Rodriguez</t>
   </si>
   <si>
-    <t>Raquel RodrÃ­guez</t>
-  </si>
-  <si>
     <t>cr CRC</t>
   </si>
   <si>
@@ -834,6 +816,24 @@
   </si>
   <si>
     <t>McCall Zerboni</t>
+  </si>
+  <si>
+    <t>Estefanía Banini</t>
+  </si>
+  <si>
+    <t>Dagný Brynjarsdóttir</t>
+  </si>
+  <si>
+    <t>Stephanie Labbé</t>
+  </si>
+  <si>
+    <t>Mônica</t>
+  </si>
+  <si>
+    <t>Yūki Nagasato</t>
+  </si>
+  <si>
+    <t>Raquel Rodríguez</t>
   </si>
 </sst>
 </file>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1599,13 +1599,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1649,16 +1649,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F10" s="2">
         <v>27</v>
@@ -1699,13 +1699,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -1749,7 +1749,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -1758,7 +1758,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2">
         <v>21</v>
@@ -1799,7 +1799,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
@@ -1849,16 +1849,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1895,13 +1895,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -1954,7 +1954,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2">
         <v>22</v>
@@ -1995,13 +1995,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -2095,7 +2095,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -2104,7 +2104,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="2">
         <v>23</v>
@@ -2145,13 +2145,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2195,7 +2195,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -2245,16 +2245,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>264</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2">
         <v>25</v>
@@ -2295,7 +2295,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
@@ -2345,7 +2345,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -2395,13 +2395,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>27</v>
@@ -2445,16 +2445,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2">
         <v>22</v>
@@ -2495,7 +2495,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
@@ -2545,7 +2545,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
@@ -2595,7 +2595,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
@@ -2645,7 +2645,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
@@ -2695,7 +2695,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
@@ -2704,7 +2704,7 @@
         <v>26</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="2">
         <v>23</v>
@@ -2745,7 +2745,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -2754,7 +2754,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="2">
         <v>23</v>
@@ -2795,7 +2795,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>29</v>
@@ -2804,7 +2804,7 @@
         <v>26</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="2">
         <v>23</v>
@@ -2845,16 +2845,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2">
         <v>27</v>
@@ -2895,7 +2895,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>29</v>
@@ -2943,7 +2943,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>29</v>
@@ -2952,7 +2952,7 @@
         <v>22</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2">
         <v>22</v>
@@ -2993,7 +2993,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>21</v>
@@ -3002,7 +3002,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2">
         <v>21</v>
@@ -3043,13 +3043,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>35</v>
@@ -3093,10 +3093,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>26</v>
@@ -3143,7 +3143,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>29</v>
@@ -3193,7 +3193,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>29</v>
@@ -3202,7 +3202,7 @@
         <v>34</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2">
         <v>28</v>
@@ -3243,16 +3243,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2">
         <v>28</v>
@@ -3293,10 +3293,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>18</v>
@@ -3343,7 +3343,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
@@ -3393,7 +3393,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>29</v>
@@ -3402,7 +3402,7 @@
         <v>26</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2">
         <v>24</v>
@@ -3443,7 +3443,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>29</v>
@@ -3493,7 +3493,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>29</v>
@@ -3543,7 +3543,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>29</v>
@@ -3593,10 +3593,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>18</v>
@@ -3643,7 +3643,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>29</v>
@@ -3693,7 +3693,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>29</v>
@@ -3743,7 +3743,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>29</v>
@@ -3793,7 +3793,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>29</v>
@@ -3843,7 +3843,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>29</v>
@@ -3893,16 +3893,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55" s="2">
         <v>24</v>
@@ -3943,10 +3943,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>34</v>
@@ -3993,16 +3993,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F57" s="2">
         <v>24</v>
@@ -4043,7 +4043,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>29</v>
@@ -4093,13 +4093,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>23</v>
@@ -4143,7 +4143,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>29</v>
@@ -4193,7 +4193,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>29</v>
@@ -4243,7 +4243,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>29</v>
@@ -4293,16 +4293,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F63" s="2">
         <v>30</v>
@@ -4343,7 +4343,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>29</v>
@@ -4389,16 +4389,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2">
         <v>26</v>
@@ -4439,7 +4439,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>29</v>
@@ -4448,7 +4448,7 @@
         <v>22</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2">
         <v>21</v>
@@ -4489,7 +4489,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>29</v>
@@ -4539,16 +4539,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2">
         <v>22</v>
@@ -4589,7 +4589,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>29</v>
@@ -4639,7 +4639,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>29</v>
@@ -4648,7 +4648,7 @@
         <v>22</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2">
         <v>24</v>
@@ -4689,7 +4689,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>29</v>
@@ -4698,7 +4698,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F71" s="2">
         <v>21</v>
@@ -4739,7 +4739,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>29</v>
@@ -4789,13 +4789,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>30</v>
@@ -4839,7 +4839,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>29</v>
@@ -4889,7 +4889,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>29</v>
@@ -4939,13 +4939,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>19</v>
@@ -4989,13 +4989,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>23</v>
@@ -5039,7 +5039,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>29</v>
@@ -5089,7 +5089,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>29</v>
@@ -5098,7 +5098,7 @@
         <v>18</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2">
         <v>24</v>
@@ -5139,7 +5139,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
@@ -5187,7 +5187,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>29</v>
@@ -5196,7 +5196,7 @@
         <v>26</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2">
         <v>28</v>
@@ -5237,13 +5237,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>27</v>
@@ -5287,16 +5287,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2">
         <v>27</v>
@@ -5337,7 +5337,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>29</v>
@@ -5346,7 +5346,7 @@
         <v>26</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2">
         <v>22</v>
@@ -5387,7 +5387,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>29</v>
@@ -5437,7 +5437,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>29</v>
@@ -5487,10 +5487,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>22</v>
@@ -5537,7 +5537,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>29</v>
@@ -5546,7 +5546,7 @@
         <v>18</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2">
         <v>22</v>
@@ -5587,16 +5587,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2">
         <v>26</v>
@@ -5637,7 +5637,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>29</v>
@@ -5646,7 +5646,7 @@
         <v>22</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2">
         <v>22</v>
@@ -5687,16 +5687,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F91" s="2">
         <v>24</v>
@@ -5737,7 +5737,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>29</v>
@@ -5787,10 +5787,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>22</v>
@@ -5837,10 +5837,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>22</v>
@@ -5887,16 +5887,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F95" s="2">
         <v>22</v>
@@ -5937,16 +5937,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F96" s="2">
         <v>25</v>
@@ -5987,16 +5987,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2">
         <v>25</v>
@@ -6037,14 +6037,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F98" s="2">
         <v>22</v>
@@ -6085,7 +6085,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>29</v>
@@ -6094,7 +6094,7 @@
         <v>18</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F99" s="2">
         <v>33</v>
@@ -6135,7 +6135,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>29</v>
@@ -6185,7 +6185,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>29</v>
@@ -6194,7 +6194,7 @@
         <v>26</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F101" s="2">
         <v>21</v>
@@ -6235,10 +6235,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>26</v>
@@ -6285,16 +6285,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F103" s="2">
         <v>31</v>
@@ -6335,7 +6335,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
@@ -6385,7 +6385,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>21</v>
@@ -6435,16 +6435,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F106" s="2">
         <v>23</v>
@@ -6485,7 +6485,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>29</v>
@@ -6494,7 +6494,7 @@
         <v>26</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2">
         <v>24</v>
@@ -6535,7 +6535,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>29</v>
@@ -6585,7 +6585,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>29</v>
@@ -6635,16 +6635,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2">
         <v>28</v>
@@ -6685,7 +6685,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>29</v>
@@ -6735,16 +6735,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F112" s="2">
         <v>26</v>
@@ -6785,13 +6785,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>23</v>
@@ -6835,13 +6835,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>19</v>
@@ -6885,7 +6885,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>29</v>
@@ -6935,7 +6935,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>29</v>
@@ -6985,13 +6985,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>30</v>
@@ -7035,7 +7035,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>29</v>
@@ -7085,7 +7085,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>29</v>
@@ -7135,7 +7135,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>29</v>
@@ -7185,13 +7185,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>19</v>
@@ -7235,7 +7235,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>29</v>
@@ -7244,7 +7244,7 @@
         <v>26</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F122" s="2">
         <v>29</v>
@@ -7285,7 +7285,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>29</v>
@@ -7294,7 +7294,7 @@
         <v>18</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F123" s="2">
         <v>22</v>
@@ -7335,7 +7335,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>29</v>
@@ -7344,7 +7344,7 @@
         <v>26</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F124" s="2">
         <v>27</v>
@@ -7385,7 +7385,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
@@ -7435,16 +7435,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F126" s="2">
         <v>26</v>
@@ -7485,10 +7485,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>18</v>
@@ -7535,16 +7535,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F128" s="2">
         <v>27</v>
@@ -7585,7 +7585,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>29</v>
@@ -7594,7 +7594,7 @@
         <v>18</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F129" s="2">
         <v>23</v>
@@ -7635,7 +7635,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>29</v>
@@ -7685,7 +7685,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>29</v>
@@ -7694,7 +7694,7 @@
         <v>22</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F131" s="2">
         <v>22</v>
@@ -7735,7 +7735,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>29</v>
@@ -7744,7 +7744,7 @@
         <v>18</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2">
         <v>22</v>
@@ -7785,7 +7785,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>29</v>
@@ -7794,7 +7794,7 @@
         <v>22</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F133" s="2">
         <v>24</v>
@@ -7835,16 +7835,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F134" s="2">
         <v>25</v>
@@ -7885,13 +7885,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>27</v>
@@ -7935,13 +7935,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>19</v>
@@ -7985,7 +7985,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>29</v>
@@ -8035,7 +8035,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>29</v>
@@ -8044,7 +8044,7 @@
         <v>22</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F138" s="2">
         <v>21</v>
@@ -8085,7 +8085,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>29</v>
@@ -8135,7 +8135,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
@@ -8185,7 +8185,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>29</v>
@@ -8235,13 +8235,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>32</v>
@@ -8285,7 +8285,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>29</v>
@@ -8294,7 +8294,7 @@
         <v>26</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F143" s="2">
         <v>24</v>
@@ -8335,16 +8335,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F144" s="2">
         <v>29</v>
@@ -8385,16 +8385,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F145" s="2">
         <v>28</v>
@@ -8435,16 +8435,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F146" s="2">
         <v>29</v>
@@ -8485,7 +8485,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>29</v>
@@ -8494,7 +8494,7 @@
         <v>26</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F147" s="2">
         <v>26</v>
@@ -8535,7 +8535,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>29</v>
@@ -8544,7 +8544,7 @@
         <v>22</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F148" s="2">
         <v>22</v>
@@ -8585,7 +8585,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>29</v>
@@ -8635,7 +8635,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>29</v>
@@ -8644,7 +8644,7 @@
         <v>34</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F150" s="2">
         <v>28</v>
@@ -8685,10 +8685,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>18</v>
@@ -8735,10 +8735,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>18</v>
@@ -8785,7 +8785,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>29</v>
@@ -8835,13 +8835,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>27</v>
@@ -8885,7 +8885,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>29</v>
@@ -8935,13 +8935,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>19</v>
@@ -8985,7 +8985,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>29</v>
@@ -9035,7 +9035,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>29</v>
@@ -9044,7 +9044,7 @@
         <v>22</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F158" s="2">
         <v>41</v>
@@ -9085,7 +9085,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>29</v>
@@ -9094,7 +9094,7 @@
         <v>22</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F159" s="2">
         <v>23</v>
@@ -9135,7 +9135,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>25</v>
@@ -9185,7 +9185,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>29</v>
@@ -9194,7 +9194,7 @@
         <v>18</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F161" s="2">
         <v>28</v>
@@ -9235,7 +9235,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>29</v>
@@ -9285,7 +9285,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>17</v>
@@ -9335,7 +9335,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>29</v>
@@ -9385,7 +9385,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>29</v>
@@ -9394,7 +9394,7 @@
         <v>26</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F165" s="2">
         <v>22</v>
@@ -9435,7 +9435,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>29</v>
@@ -9485,13 +9485,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>30</v>
@@ -9535,7 +9535,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>29</v>
@@ -9585,7 +9585,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>29</v>
@@ -9635,16 +9635,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F170" s="2">
         <v>31</v>
@@ -9685,16 +9685,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F171" s="2">
         <v>22</v>
@@ -9735,7 +9735,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>29</v>
@@ -9785,16 +9785,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F173" s="2">
         <v>27</v>
@@ -9835,7 +9835,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>29</v>
@@ -9844,7 +9844,7 @@
         <v>22</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F174" s="2">
         <v>29</v>
@@ -9885,16 +9885,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F175" s="2">
         <v>24</v>
@@ -9935,7 +9935,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>29</v>
@@ -9985,13 +9985,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>32</v>
@@ -10035,16 +10035,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F178" s="2">
         <v>23</v>
@@ -10085,13 +10085,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>35</v>
@@ -10135,7 +10135,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>29</v>
@@ -10185,7 +10185,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>29</v>
@@ -10235,16 +10235,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F182" s="2">
         <v>22</v>
@@ -10285,7 +10285,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
@@ -10335,16 +10335,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F184" s="2">
         <v>21</v>
@@ -10385,7 +10385,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>29</v>
@@ -10394,7 +10394,7 @@
         <v>26</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F185" s="2">
         <v>25</v>
@@ -10435,7 +10435,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>29</v>
@@ -10485,7 +10485,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>29</v>
@@ -10494,7 +10494,7 @@
         <v>22</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F187" s="2">
         <v>26</v>
@@ -10535,7 +10535,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>29</v>
@@ -10544,7 +10544,7 @@
         <v>22</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F188" s="2">
         <v>22</v>
@@ -10585,16 +10585,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F189" s="2">
         <v>33</v>
@@ -10635,7 +10635,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>29</v>
@@ -10644,7 +10644,7 @@
         <v>22</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F190" s="2">
         <v>22</v>
@@ -10685,13 +10685,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>30</v>
@@ -10735,7 +10735,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>29</v>
@@ -10785,10 +10785,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>26</v>
@@ -10835,7 +10835,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>29</v>
@@ -10844,7 +10844,7 @@
         <v>22</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F194" s="2">
         <v>23</v>
@@ -10885,7 +10885,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>29</v>
@@ -10935,7 +10935,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>29</v>
@@ -10985,13 +10985,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>23</v>
@@ -11035,7 +11035,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>29</v>
@@ -11044,7 +11044,7 @@
         <v>26</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F198" s="2">
         <v>26</v>
@@ -11085,7 +11085,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>29</v>
@@ -11135,7 +11135,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>29</v>
@@ -11185,16 +11185,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C201" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F201" s="2">
         <v>23</v>
@@ -11235,7 +11235,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>21</v>
@@ -11244,7 +11244,7 @@
         <v>18</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F202" s="2">
         <v>25</v>
@@ -11285,7 +11285,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>29</v>
@@ -11335,7 +11335,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>29</v>
@@ -11344,7 +11344,7 @@
         <v>26</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F204" s="2">
         <v>21</v>
@@ -11385,13 +11385,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>32</v>
@@ -11435,7 +11435,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>29</v>
@@ -11485,16 +11485,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F207" s="2">
         <v>28</v>
@@ -11535,7 +11535,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>29</v>
@@ -11585,7 +11585,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>29</v>
@@ -11594,7 +11594,7 @@
         <v>18</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F209" s="2">
         <v>22</v>
@@ -11635,7 +11635,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>29</v>
@@ -11685,7 +11685,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>29</v>
@@ -11735,10 +11735,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>18</v>
@@ -11785,16 +11785,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F213" s="2">
         <v>28</v>
@@ -11835,13 +11835,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>27</v>
@@ -11885,7 +11885,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>29</v>
@@ -11935,7 +11935,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>29</v>
@@ -11985,7 +11985,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>29</v>
@@ -11994,7 +11994,7 @@
         <v>22</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F217" s="2">
         <v>24</v>
@@ -12035,10 +12035,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>22</v>
@@ -12085,16 +12085,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F219" s="2">
         <v>28</v>
@@ -12135,7 +12135,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>17</v>
@@ -12185,7 +12185,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>29</v>
